--- a/TestResults/UomTypeGet.xlsx
+++ b/TestResults/UomTypeGet.xlsx
@@ -212,7 +212,7 @@
   <si>
     <t>
 {
-	"timestamp":"2019-08-20T15:48:54.629+0000",
+	"timestamp":"2019-08-20T17:02:36.960+0000",
 	"status":404,
 	"error":"Not Found",
 	"message":"No message available",

--- a/TestResults/UomTypeGet.xlsx
+++ b/TestResults/UomTypeGet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -71,159 +71,61 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 10, below are the test steps for this test case</t>
-  </si>
-  <si>
-    <t>Response_uomTypeCd: Test_82
-DB_uomTypeCd: Test_82
-Response_uomTypeNm: TestAuto82
-DB_uomTypeNm: TestAuto82
-Response_uomTypeDesc: 
-DB_uomTypeDesc: 
+    <t>Total number of records matching between DB &amp; Response: 5, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_uomTypeCd: TestUOMCD1
+DB_uomTypeCd: TestUOMCD1
+Response_uomTypeNm: TestUOMNM1
+DB_uomTypeNm: TestUOMNM1
+Response_uomTypeDesc: TestUOMDC1
+DB_uomTypeDesc: TestUOMDC1
 </t>
   </si>
   <si>
-    <t>Response_uomTypeCd: TestData99
-DB_uomTypeCd: TestData99
-Response_uomTypeNm: TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestD
-DB_uomTypeNm: TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestD
-Response_uomTypeDesc: TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestDTestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestDTestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestDTestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99Test
-DB_uomTypeDesc: TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestDTestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestDTestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestDTestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99TestData99Test
+    <t xml:space="preserve">Response_uomTypeCd: TestUOMCOD
+DB_uomTypeCd: TestUOMCOD
+Response_uomTypeNm: Test_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNM123452
+DB_uomTypeNm: Test_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNM123452
+Response_uomTypeDesc: Test_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMD2
+DB_uomTypeDesc: Test_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMD2
 </t>
   </si>
   <si>
-    <t>Response_uomTypeCd: Test_81
-DB_uomTypeCd: Test_81
-Response_uomTypeNm: TestAuto81
-DB_uomTypeNm: TestAuto81
-Response_uomTypeDesc: TestAutoSpecial81
-DB_uomTypeDesc: TestAutoSpecial81
+    <t xml:space="preserve">Response_uomTypeCd: TestForGet
+DB_uomTypeCd: TestForGet
+Response_uomTypeNm: TestUOMGet
+DB_uomTypeNm: TestUOMGet
+Response_uomTypeDesc: TestUOMGet
+DB_uomTypeDesc: TestUOMGet
 </t>
   </si>
   <si>
-    <t>Response_uomTypeCd: TestData84
-DB_uomTypeCd: TestData84
-Response_uomTypeNm: TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestD
-DB_uomTypeNm: TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestD
-Response_uomTypeDesc: TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestDTestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestDTestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestDTestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84Test
-DB_uomTypeDesc: TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestDTestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestDTestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestDTestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84TestData84Test
+    <t xml:space="preserve">Response_uomTypeCd: !*&amp;%@#@#
+DB_uomTypeCd: !*&amp;%@#@#
+Response_uomTypeNm: Test_UOMName2
+DB_uomTypeNm: Test_UOMName2
+Response_uomTypeDesc: Test_UOM_Desc2
+DB_uomTypeDesc: Test_UOM_Desc2
 </t>
   </si>
   <si>
-    <t>Response_uomTypeCd: MLT3
-DB_uomTypeCd: MLT3
-Response_uomTypeNm: Milli LitreSDFDSD
-DB_uomTypeNm: Milli LitreSDFDSD
-Response_uomTypeDesc: To measure the liquid items updatedS
-DB_uomTypeDesc: To measure the liquid items updatedS
+    <t xml:space="preserve">Response_uomTypeCd: Test_UOMCD
+DB_uomTypeCd: Test_UOMCD
+Response_uomTypeNm: Test_UOMNM
+DB_uomTypeNm: Test_UOMNM
+Response_uomTypeDesc: Test_UOMDa
+DB_uomTypeDesc: Test_UOMDa
 </t>
   </si>
   <si>
-    <t>Response_uomTypeCd: Test_96
-DB_uomTypeCd: Test_96
-Response_uomTypeNm: TestAuto96
-DB_uomTypeNm: TestAuto96
-Response_uomTypeDesc: TestAutoSpecial96
-DB_uomTypeDesc: TestAutoSpecial96
-</t>
-  </si>
-  <si>
-    <t>Response_uomTypeCd: Test_97
-DB_uomTypeCd: Test_97
-Response_uomTypeNm: TestAuto97
-DB_uomTypeNm: TestAuto97
-Response_uomTypeDesc: 
-DB_uomTypeDesc: 
-</t>
-  </si>
-  <si>
-    <t>Response_uomTypeCd: Test_98
-DB_uomTypeCd: Test_98
-Response_uomTypeNm: TestAuto98
-DB_uomTypeNm: TestAuto98
-Response_uomTypeDesc: 
-DB_uomTypeDesc: 
-</t>
-  </si>
-  <si>
-    <t>Response_uomTypeCd: Test_04
-DB_uomTypeCd: Test_04
-Response_uomTypeNm: TestAuto04
-DB_uomTypeNm: TestAuto04
-Response_uomTypeDesc: TestDesc04
-DB_uomTypeDesc: TestDesc04
-</t>
-  </si>
-  <si>
-    <t>Response_uomTypeCd: Test_83
-DB_uomTypeCd: Test_83
-Response_uomTypeNm: TestAuto83
-DB_uomTypeNm: TestAuto83
-Response_uomTypeDesc: 
-DB_uomTypeDesc: 
-</t>
-  </si>
-  <si>
     <t>TC_02</t>
   </si>
   <si>
     <t>Verify that the REF UOM service is successfully retrieving the REF UOM details REF UOM code is passed in URI</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 0, below are the test steps for this test case</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>Verify that the Error message is displayed when the invalid REF UOM code (not available in REF UOM table) is passed in URI</t>
-  </si>
-  <si>
-    <t>Input_uomTypeCd: Testdata10123
-</t>
-  </si>
-  <si>
-    <t>
-{
-	"meta":
-	{
-		"version":"1.0.0",
-		"message":
-		{
-			"data":null,
-			"internalMessage":"There are no records for the specified criteria",
-			"status":"Success"
-		}
-	},
-	"data":
-	[
-	]
-}</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>Verify that the Exception is received when the URI is not correct</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>
-{
-	"timestamp":"2019-08-20T17:02:36.960+0000",
-	"status":404,
-	"error":"Not Found",
-	"message":"No message available",
-	"path":"/uomType"
-}</t>
-  </si>
-  <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>Verify that the REF UOM service is successfully retrieving the REF UOM details when REF UOM code (special characters) is passed in URI</t>
+    <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
   </si>
 </sst>
 </file>
@@ -231,7 +133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="167">
+  <fonts count="90">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -244,391 +146,6 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1137,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1404,237 +921,6 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1649,17 +935,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.58720703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.246484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.2498046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.382421875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.58818359375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.8267578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -1915,10 +1201,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="68">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s" s="69">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s" s="70">
         <v>13</v>
@@ -1933,19 +1219,19 @@
         <v>15</v>
       </c>
       <c r="G8" t="s" s="74">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s" s="75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="76">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s" s="77">
         <v>18</v>
       </c>
       <c r="K8" t="s" s="78">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L8"/>
     </row>
@@ -1954,7 +1240,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s" s="80">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s" s="81">
         <v>13</v>
@@ -1975,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="I9" t="s" s="87">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s" s="88">
         <v>18</v>
@@ -1984,258 +1270,6 @@
         <v>15</v>
       </c>
       <c r="L9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="90">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s" s="91">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s" s="92">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s" s="93">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="94">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s" s="95">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s" s="96">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s" s="97">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s" s="98">
-        <v>27</v>
-      </c>
-      <c r="J10" t="s" s="99">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s" s="100">
-        <v>15</v>
-      </c>
-      <c r="L10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="101">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s" s="102">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s" s="103">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s" s="104">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="105">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s" s="106">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s" s="107">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s" s="108">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s" s="109">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s" s="110">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s" s="111">
-        <v>15</v>
-      </c>
-      <c r="L11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="112">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s" s="113">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s" s="114">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="115">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="116">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s" s="117">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s" s="118">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s" s="119">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s" s="120">
-        <v>29</v>
-      </c>
-      <c r="J12" t="s" s="121">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s" s="122">
-        <v>15</v>
-      </c>
-      <c r="L12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="123">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s" s="124">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s" s="125">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s" s="126">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="127">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s" s="128">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s" s="129">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s" s="130">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s" s="131">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s" s="132">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s" s="133">
-        <v>32</v>
-      </c>
-      <c r="L13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="134">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s" s="135">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s" s="136">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s" s="137">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s" s="138">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s" s="139">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s" s="140">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s" s="141">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s" s="142">
-        <v>36</v>
-      </c>
-      <c r="J14" t="s" s="143">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s" s="144">
-        <v>15</v>
-      </c>
-      <c r="L14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="145">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s" s="146">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s" s="147">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s" s="148">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="149">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s" s="150">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s" s="151">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s" s="152">
-        <v>39</v>
-      </c>
-      <c r="I15" t="s" s="153">
-        <v>40</v>
-      </c>
-      <c r="J15" t="s" s="154">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s" s="155">
-        <v>15</v>
-      </c>
-      <c r="L15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="156">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s" s="157">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s" s="158">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s" s="159">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="160">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s" s="161">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s" s="162">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s" s="163">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s" s="164">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s" s="165">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s" s="166">
-        <v>32</v>
-      </c>
-      <c r="L16"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/TestResults/UomTypeGet.xlsx
+++ b/TestResults/UomTypeGet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="49">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -71,54 +71,126 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 5, below are the test steps for this test case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_uomTypeCd: TestUOMCD1
-DB_uomTypeCd: TestUOMCD1
-Response_uomTypeNm: TestUOMNM1
-DB_uomTypeNm: TestUOMNM1
-Response_uomTypeDesc: TestUOMDC1
-DB_uomTypeDesc: TestUOMDC1
+    <t>Total number of records matching between DB &amp; Response: 13, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_uomTypeCode: TestCDAQ
+DB_uomTypeCode: TestCDAQ
+Response_uomTypeName: TestuomTymNameW
+DB_uomTypeName: TestuomTymNameW
+Response_uomTypeDescription: 
+DB_uomTypeDescription: 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_uomTypeCd: TestUOMCOD
-DB_uomTypeCd: TestUOMCOD
-Response_uomTypeNm: Test_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNM123452
-DB_uomTypeNm: Test_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNM123452
-Response_uomTypeDesc: Test_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMD2
-DB_uomTypeDesc: Test_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMD2
+    <t xml:space="preserve">Response_uomTypeCode: TestUOMCD1
+DB_uomTypeCode: TestUOMCD1
+Response_uomTypeName: TestUOMNM1
+DB_uomTypeName: TestUOMNM1
+Response_uomTypeDescription: TestUOMDC1
+DB_uomTypeDescription: TestUOMDC1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_uomTypeCd: TestForGet
-DB_uomTypeCd: TestForGet
-Response_uomTypeNm: TestUOMGet
-DB_uomTypeNm: TestUOMGet
-Response_uomTypeDesc: TestUOMGet
-DB_uomTypeDesc: TestUOMGet
+    <t xml:space="preserve">Response_uomTypeCode: !@#&amp;
+DB_uomTypeCode: !@#&amp;
+Response_uomTypeName: TestUOMName1
+DB_uomTypeName: TestUOMName1
+Response_uomTypeDescription: 
+DB_uomTypeDescription: 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_uomTypeCd: !*&amp;%@#@#
-DB_uomTypeCd: !*&amp;%@#@#
-Response_uomTypeNm: Test_UOMName2
-DB_uomTypeNm: Test_UOMName2
-Response_uomTypeDesc: Test_UOM_Desc2
-DB_uomTypeDesc: Test_UOM_Desc2
+    <t xml:space="preserve">Response_uomTypeCode: Test_UOM11
+DB_uomTypeCode: Test_UOM11
+Response_uomTypeName: Test_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNM123447
+DB_uomTypeName: Test_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNMTest_UOMNM123447
+Response_uomTypeDescription: Test_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMAV
+DB_uomTypeDescription: Test_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMDCTest_UOMAV
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_uomTypeCd: Test_UOMCD
-DB_uomTypeCd: Test_UOMCD
-Response_uomTypeNm: Test_UOMNM
-DB_uomTypeNm: Test_UOMNM
-Response_uomTypeDesc: Test_UOMDa
-DB_uomTypeDesc: Test_UOMDa
+    <t xml:space="preserve">Response_uomTypeCode: TestUOMCOD
+DB_uomTypeCode: TestUOMCOD
+Response_uomTypeName: TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOM
+DB_uomTypeName: TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOM
+Response_uomTypeDescription: TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTed
+DB_uomTypeDescription: TestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTestUOMUOMTed
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Response_uomTypeCode: TestCD3
+DB_uomTypeCode: TestCD3
+Response_uomTypeName: Test_uomTypeNmName4
+DB_uomTypeName: Test_uomTypeNmName4
+Response_uomTypeDescription: 
+DB_uomTypeDescription: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_uomTypeCode: TestForGet
+DB_uomTypeCode: TestForGet
+Response_uomTypeName: TestUOMGet
+DB_uomTypeName: TestUOMGet
+Response_uomTypeDescription: TestUOMGet
+DB_uomTypeDescription: TestUOMGet
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_uomTypeCode: UOMForPut
+DB_uomTypeCode: UOMForPut
+Response_uomTypeName: TestUOMNM
+DB_uomTypeName: TestUOMNM
+Response_uomTypeDescription: 
+DB_uomTypeDescription: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_uomTypeCode: TesAACDQ
+DB_uomTypeCode: TesAACDQ
+Response_uomTypeName: TesAANQQ
+DB_uomTypeName: TesAANQQ
+Response_uomTypeDescription: TeAAMDCQ
+DB_uomTypeDescription: TeAAMDCQ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_uomTypeCode: **%**
+DB_uomTypeCode: **%**
+Response_uomTypeName: TestMNameB
+DB_uomTypeName: TestMNameB
+Response_uomTypeDescription: 
+DB_uomTypeDescription: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_uomTypeCode: TestATMYRq
+DB_uomTypeCode: TestATMYRq
+Response_uomTypeName: TestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTest
+DB_uomTypeName: TestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTestUOMNamerefTest
+Response_uomTypeDescription: UomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDes
+DB_uomTypeDescription: UomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDescUomTypeDes
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_uomTypeCode: !*&amp;%@#@#
+DB_uomTypeCode: !*&amp;%@#@#
+Response_uomTypeName: TestUOMNameb
+DB_uomTypeName: TestUOMNameb
+Response_uomTypeDescription: TestUOMDescb
+DB_uomTypeDescription: TestUOMDescb
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_uomTypeCode: Test_UOMCD
+DB_uomTypeCode: Test_UOMCD
+Response_uomTypeName: Test_UOMNM
+DB_uomTypeName: Test_UOMNM
+Response_uomTypeDescription: 
+DB_uomTypeDescription: 
+</t>
+  </si>
+  <si>
     <t>TC_02</t>
   </si>
   <si>
@@ -126,6 +198,75 @@
   </si>
   <si>
     <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify that the Error message is displayed when the invalid REF UOM code (not available in REF UOM table) is passed in URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_uomTypeCode: TestotAVA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"data":null,
+			"internalMessage":"There are no records for the specified criteria",
+			"status":"Success"
+		}
+	},
+	"data":
+	[
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"timestamp":"2020-04-21T14:02:04.455+0000",
+	"status":404,
+	"error":"Not Found",
+	"message":"No message available",
+	"path":"/v2/uomType"
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the REF UOM service is successfully retrieving the REF UOM details when REF UOM code (special characters) is passed in URI</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"timestamp":"2020-04-21T14:02:05.671+0000",
+	"status":500,
+	"error":"Internal Server Error",
+	"message":"The request was rejected because the URL contained a potentially malicious String \"%25\"",
+	"path":"/geopolitical-efs-query/v2/uomTypes/%21*%26%25%40"
+}</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -133,7 +274,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="90">
+  <fonts count="211">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -586,6 +727,611 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -654,7 +1400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -921,6 +1667,369 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1201,10 +2310,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="68">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s" s="69">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s" s="70">
         <v>13</v>
@@ -1219,19 +2328,19 @@
         <v>15</v>
       </c>
       <c r="G8" t="s" s="74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s" s="75">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s" s="76">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s" s="77">
         <v>18</v>
       </c>
       <c r="K8" t="s" s="78">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L8"/>
     </row>
@@ -1240,7 +2349,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s" s="80">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s" s="81">
         <v>13</v>
@@ -1261,7 +2370,7 @@
         <v>15</v>
       </c>
       <c r="I9" t="s" s="87">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s" s="88">
         <v>18</v>
@@ -1270,6 +2379,398 @@
         <v>15</v>
       </c>
       <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>15</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>15</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>15</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>15</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>15</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>15</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>35</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>15</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s" s="180">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>15</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="189">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s" s="190">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s" s="191">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s" s="194">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s" s="196">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s" s="197">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s" s="198">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s" s="199">
+        <v>15</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="200">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s" s="201">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s" s="202">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="203">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s" s="204">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s" s="205">
+        <v>15</v>
+      </c>
+      <c r="G20" s="206"/>
+      <c r="H20" t="s" s="207">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s" s="208">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s" s="209">
+        <v>48</v>
+      </c>
+      <c r="K20" s="210"/>
+      <c r="L20"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
